--- a/設計書など/記事詳細画面設計図.xlsx
+++ b/設計書など/記事詳細画面設計図.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murak\OneDrive\デスクトップ\homePage\設計書など\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/okunomutsumi/VBbeat_local/設計書など/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F6EA5DC-1CBC-4426-8B09-72A2439243FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD6C0BA-5F26-6E41-B465-18F1678C6F65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7E7AE153-48D3-49C5-9AB5-0F3616F97BC7}"/>
+    <workbookView xWindow="7140" yWindow="740" windowWidth="12320" windowHeight="12060" xr2:uid="{7E7AE153-48D3-49C5-9AB5-0F3616F97BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,8 +352,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="838200" y="1400175"/>
-          <a:ext cx="3609975" cy="4391025"/>
+          <a:off x="838200" y="1362075"/>
+          <a:ext cx="3609975" cy="4270375"/>
           <a:chOff x="828675" y="1419225"/>
           <a:chExt cx="3609975" cy="4391025"/>
         </a:xfrm>
@@ -565,66 +565,6 @@
                 </a:solidFill>
               </a:rPr>
               <a:t>×</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="正方形/長方形 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B868669B-D992-4472-B54B-C4A10523670C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="828675" y="5524501"/>
-            <a:ext cx="3609975" cy="285749"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="92D050"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="92D050"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="r"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>2020/12/02 23:02</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1010,16 +950,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12990A4F-3B32-4D22-8E4B-7E6549CE1452}">
   <dimension ref="K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="11" max="11" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="11:11">
       <c r="K12" s="1"/>
     </row>
   </sheetData>

--- a/設計書など/記事詳細画面設計図.xlsx
+++ b/設計書など/記事詳細画面設計図.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/okunomutsumi/VBbeat_local/設計書など/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murak\OneDrive\デスクトップ\homePage\設計書など\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD6C0BA-5F26-6E41-B465-18F1678C6F65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C15797-825D-4FD1-ACA1-6D000A238C42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="740" windowWidth="12320" windowHeight="12060" xr2:uid="{7E7AE153-48D3-49C5-9AB5-0F3616F97BC7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7E7AE153-48D3-49C5-9AB5-0F3616F97BC7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="記事画面" sheetId="1" r:id="rId1"/>
+    <sheet name="記事一覧画面" sheetId="2" r:id="rId2"/>
+    <sheet name="ホーム画面" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,8 +354,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="838200" y="1362075"/>
-          <a:ext cx="3609975" cy="4270375"/>
+          <a:off x="838200" y="1400175"/>
+          <a:ext cx="3609975" cy="4391025"/>
           <a:chOff x="828675" y="1419225"/>
           <a:chExt cx="3609975" cy="4391025"/>
         </a:xfrm>
@@ -575,15 +577,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -598,7 +600,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5705475" y="1257300"/>
+          <a:off x="5819775" y="5267325"/>
           <a:ext cx="3705225" cy="619125"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
@@ -607,8 +609,8 @@
             <a:gd name="adj2" fmla="val -3449"/>
             <a:gd name="adj3" fmla="val 18750"/>
             <a:gd name="adj4" fmla="val -16667"/>
-            <a:gd name="adj5" fmla="val 170962"/>
-            <a:gd name="adj6" fmla="val -46153"/>
+            <a:gd name="adj5" fmla="val -96731"/>
+            <a:gd name="adj6" fmla="val -52323"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -643,6 +645,1982 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
             <a:t>パソコンのウィンドウみたいな感じ</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="吹き出し: 折線 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B690E268-4F55-460D-8A66-1FC3D156A7BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6267450" y="657225"/>
+          <a:ext cx="3705225" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18751"/>
+            <a:gd name="adj2" fmla="val -3449"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val 98913"/>
+            <a:gd name="adj6" fmla="val -50524"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>×</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>ボタン押したら記事一覧画面に遷移する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8963</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{713C81C5-52C0-41C4-B9A9-234A432FD551}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="679523" y="237566"/>
+          <a:ext cx="3934387" cy="6077509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F3A099-81E8-4923-B9A2-FA811B64C576}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="680085" y="238125"/>
+          <a:ext cx="3933825" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ヘッダー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFCA504D-AC0A-4A23-BD92-DE0ECF4E74F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="680085" y="5962650"/>
+          <a:ext cx="3933825" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ホームへ　　　　　　　　　　　　　　　　　　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>16:34</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="吹き出し: 折線 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32793A51-FAAD-4516-8F2C-6F2AA49FEE74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6301740" y="657225"/>
+          <a:ext cx="3716655" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18751"/>
+            <a:gd name="adj2" fmla="val -3449"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val 98913"/>
+            <a:gd name="adj6" fmla="val -50524"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>アイコンクリックしたら該当の記事画面に飛ぶ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD71EF30-9E4F-4231-828C-B8A7A3FA698C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="1485900"/>
+          <a:ext cx="628650" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{167E051B-07B6-4789-98D1-5101B7BD3B23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="1485900"/>
+          <a:ext cx="628650" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB9BE830-05DC-443F-BD8E-7FEDDCF83783}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2809875" y="1485900"/>
+          <a:ext cx="628650" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84006E13-E66D-49CE-AFDB-1B44E01FF6B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3752850" y="1495425"/>
+          <a:ext cx="628650" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E8B97B4-3451-43B9-990A-B4AF9FE0A8A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866775" y="2409825"/>
+          <a:ext cx="628650" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF0EBF87-8656-4B64-ADBF-6C2A85416D44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="2409825"/>
+          <a:ext cx="628650" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11713E06-C12B-4AA7-8E3F-2F187EFED8FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2800350" y="2409825"/>
+          <a:ext cx="628650" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD7339A3-55DA-4F58-A84F-5737FC2FA528}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3743325" y="2419350"/>
+          <a:ext cx="628650" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D060D4E2-48F7-4628-B9C2-5D6A937E7826}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="3324225"/>
+          <a:ext cx="628650" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A9152A9-1499-4EFB-90F8-C22FAB9676DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="3324225"/>
+          <a:ext cx="628650" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8963</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2997EE8-9A5A-4E3E-833F-52540897858B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="679523" y="237566"/>
+          <a:ext cx="3934387" cy="6077509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{086933E4-80C7-4E95-9960-4FEDA9FDF9CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="680085" y="238125"/>
+          <a:ext cx="3933825" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ヘッダー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF59BF22-04DC-433C-BCD4-341507734786}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="680085" y="5962650"/>
+          <a:ext cx="3933825" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ホームへ　　　　　　　　　　　　　　　　　　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>16:34</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 折線 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B26DDFD-06C6-4A12-AFE3-4A7DA651B175}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6301740" y="657225"/>
+          <a:ext cx="3716655" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18751"/>
+            <a:gd name="adj2" fmla="val -3449"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val 98913"/>
+            <a:gd name="adj6" fmla="val -50524"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>アイコンクリックしたら該当の記事一覧画面に飛ぶ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2A3FA85-EEF6-46DD-AB04-BDB1B041211A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="880110" y="1485900"/>
+          <a:ext cx="632460" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE2F54E0-F37C-4C1F-A5DF-4F920D10B59B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1836420" y="1485900"/>
+          <a:ext cx="632460" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A2820FC-CCDE-4B91-BB0B-60BA4D1F9835}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2825115" y="1485900"/>
+          <a:ext cx="632460" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C731B75-7DA2-46E2-ACC8-FACBB54F5988}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771900" y="1495425"/>
+          <a:ext cx="632460" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C4A03E1-113F-49D1-84BD-86005384A233}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="870585" y="2409825"/>
+          <a:ext cx="632460" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D19DC3-4C43-4DDC-9236-D690DA5B594C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1826895" y="2409825"/>
+          <a:ext cx="632460" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ED166A1-AB36-4E61-A046-94CC99C8DD63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2815590" y="2409825"/>
+          <a:ext cx="632460" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{148C3F13-9299-4527-BDC7-6A2F26316338}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3762375" y="2419350"/>
+          <a:ext cx="632460" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A25C1FB-5277-493F-AA16-F77719ABA176}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="880110" y="3324225"/>
+          <a:ext cx="632460" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBF9045E-8239-4ABE-9732-D95629373345}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1836420" y="3324225"/>
+          <a:ext cx="632460" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -950,16 +2928,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12990A4F-3B32-4D22-8E4B-7E6549CE1452}">
   <dimension ref="K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="11:11">
+    <row r="12" spans="11:11" x14ac:dyDescent="0.45">
+      <c r="K12" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2EB578-1653-4F92-8A78-7A45A5AC375C}">
+  <dimension ref="K12"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="11" max="11" width="10.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="11:11" x14ac:dyDescent="0.45">
+      <c r="K12" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D90A80-D141-4146-B7B8-BC01D9EED929}">
+  <dimension ref="K12"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="11" max="11" width="10.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="11:11" x14ac:dyDescent="0.45">
       <c r="K12" s="1"/>
     </row>
   </sheetData>
